--- a/doc/task06/Scrum.xlsx
+++ b/doc/task06/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2db\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\DATEIEN\BFH\Software_Engineering_and_Design\Project\ch.bfh.bti7081.s2020.red\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{F2908574-7E9F-4794-8A03-6F9E18A8418C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FCAF38C-C0D8-4663-96BB-F29AEC3CC01A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159397C-4C78-4A46-A8DB-7154AADC364D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="2" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -996,18 +996,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5AE5D-6B1F-448B-9273-535DA62C52FE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1100,18 +1100,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016FE4A-2B73-459C-87CB-EDCAB38B1A70}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="17" t="s">
         <v>47</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1390,21 +1390,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D673EB-24A7-477E-9980-3DAAF88CD06C}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="62.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="12" max="12" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <f>'Product Backlog'!A2</f>
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+0.1</f>
         <v>1.1000000000000001</v>
@@ -1515,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A5" si="0">A3+0.1</f>
         <v>1.2000000000000002</v>
@@ -1548,7 +1548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
@@ -1581,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -1593,7 +1593,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <f>'Product Backlog'!A3</f>
         <v>2</v>
@@ -1633,7 +1633,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>A7+0.1</f>
         <v>2.1</v>
@@ -1669,7 +1669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>A8+0.1</f>
         <v>2.2000000000000002</v>
@@ -1701,7 +1701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -1713,7 +1713,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <f>'Product Backlog'!A4</f>
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>A11+0.1</f>
         <v>3.1</v>
@@ -1789,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <f t="shared" ref="A13:A18" si="4">A12+0.1</f>
         <v>3.2</v>
@@ -1825,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <f t="shared" si="4"/>
         <v>3.3000000000000003</v>
@@ -1861,7 +1861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f t="shared" si="4"/>
         <v>3.4000000000000004</v>
@@ -1897,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <f t="shared" si="4"/>
         <v>3.5000000000000004</v>
@@ -1933,7 +1933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f>A16+0.1</f>
         <v>3.6000000000000005</v>
@@ -1969,7 +1969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <f t="shared" si="4"/>
         <v>3.7000000000000006</v>
@@ -2005,7 +2005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -2017,7 +2017,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f>'Product Backlog'!A5</f>
         <v>4</v>
@@ -2057,7 +2057,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f xml:space="preserve"> A20+0.1</f>
         <v>4.0999999999999996</v>
@@ -2090,7 +2090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A29" si="7" xml:space="preserve"> A21+0.1</f>
         <v>4.1999999999999993</v>
@@ -2123,7 +2123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="7"/>
         <v>4.2999999999999989</v>
@@ -2156,7 +2156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="7"/>
         <v>4.3999999999999986</v>
@@ -2189,7 +2189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="7"/>
         <v>4.4999999999999982</v>
@@ -2222,7 +2222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="7"/>
         <v>4.5999999999999979</v>
@@ -2255,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="7"/>
         <v>4.6999999999999975</v>
@@ -2288,7 +2288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="7"/>
         <v>4.7999999999999972</v>
@@ -2321,7 +2321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="7"/>
         <v>4.8999999999999968</v>
@@ -2354,7 +2354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30">
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4.12</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -2462,7 +2462,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <f>'Product Backlog'!A6</f>
         <v>5</v>
@@ -2502,7 +2502,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f>A34+0.1</f>
         <v>5.0999999999999996</v>
@@ -2535,7 +2535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f>A35+0.1</f>
         <v>5.1999999999999993</v>
@@ -2568,7 +2568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f>A36+0.1</f>
         <v>5.2999999999999989</v>
@@ -2601,7 +2601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -2613,7 +2613,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <f>'Product Backlog'!A7</f>
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>A39+0.1</f>
         <v>6.1</v>
@@ -2689,7 +2689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A48" si="11">A40+0.1</f>
         <v>6.1999999999999993</v>
@@ -2725,7 +2725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="11"/>
         <v>6.2999999999999989</v>
@@ -2761,7 +2761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="11"/>
         <v>6.3999999999999986</v>
@@ -2797,7 +2797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="11"/>
         <v>6.4999999999999982</v>
@@ -2833,7 +2833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="11"/>
         <v>6.5999999999999979</v>
@@ -2869,7 +2869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="11"/>
         <v>6.6999999999999975</v>
@@ -2905,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="11"/>
         <v>6.7999999999999972</v>
@@ -2937,7 +2937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="11"/>
         <v>6.8999999999999968</v>
@@ -2973,7 +2973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30">
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>135</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>137</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -3054,7 +3054,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <f>'Product Backlog'!A8</f>
         <v>7</v>
@@ -3094,7 +3094,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f>A52+0.1</f>
         <v>7.1</v>
@@ -3127,7 +3127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ref="A54:A55" si="12">A53+0.1</f>
         <v>7.1999999999999993</v>
@@ -3160,7 +3160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="12"/>
         <v>7.2999999999999989</v>
@@ -3193,7 +3193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -3206,7 +3206,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <f>'Product Backlog'!A9</f>
         <v>8</v>
@@ -3243,7 +3243,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f xml:space="preserve"> A57 + 0.1</f>
         <v>8.1</v>
@@ -3276,7 +3276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ref="A59:A65" si="14" xml:space="preserve"> A58 + 0.1</f>
         <v>8.1999999999999993</v>
@@ -3309,7 +3309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="14"/>
         <v>8.2999999999999989</v>
@@ -3342,7 +3342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="14"/>
         <v>8.3999999999999986</v>
@@ -3375,7 +3375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="14"/>
         <v>8.4999999999999982</v>
@@ -3408,7 +3408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="14"/>
         <v>8.5999999999999979</v>
@@ -3441,7 +3441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="14"/>
         <v>8.6999999999999975</v>
@@ -3474,7 +3474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="14"/>
         <v>8.7999999999999972</v>
@@ -3507,7 +3507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
@@ -3519,7 +3519,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -3531,7 +3531,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
@@ -3543,7 +3543,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -3555,7 +3555,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -3567,7 +3567,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -3579,7 +3579,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -3591,7 +3591,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -3603,7 +3603,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -3615,7 +3615,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -3627,7 +3627,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -3639,7 +3639,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -3651,7 +3651,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="9"/>
       <c r="D78" s="4"/>
@@ -3663,7 +3663,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="9"/>
       <c r="D79" s="4"/>
@@ -3675,7 +3675,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -3687,7 +3687,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
@@ -3699,7 +3699,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -3711,7 +3711,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -3723,7 +3723,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -3735,7 +3735,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -3747,7 +3747,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -3759,7 +3759,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -3771,7 +3771,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -3783,7 +3783,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="9"/>
       <c r="D89" s="4"/>
@@ -3795,7 +3795,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
@@ -3807,7 +3807,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
@@ -3819,7 +3819,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -3831,7 +3831,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -3843,7 +3843,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -3855,7 +3855,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -3867,7 +3867,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
@@ -3879,7 +3879,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -3891,7 +3891,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -3903,7 +3903,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -3915,7 +3915,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
@@ -3927,7 +3927,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -3939,7 +3939,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
@@ -3951,7 +3951,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -3963,7 +3963,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -3975,7 +3975,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -3987,7 +3987,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -3999,7 +3999,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
@@ -4011,7 +4011,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -4023,7 +4023,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
@@ -4035,7 +4035,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
@@ -4047,7 +4047,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
@@ -4059,7 +4059,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -4071,7 +4071,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -4083,7 +4083,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -4095,7 +4095,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -4107,7 +4107,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -4119,7 +4119,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -4131,7 +4131,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -4143,7 +4143,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="2:12">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
@@ -4155,7 +4155,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="2:12">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="4"/>
@@ -4167,7 +4167,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="2:12">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -4179,7 +4179,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="2:12">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
@@ -4191,7 +4191,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="2:12">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -4203,7 +4203,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
@@ -4215,7 +4215,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="2:12">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -4227,7 +4227,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="2:12">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
@@ -4253,9 +4253,9 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4452,12 +4452,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4466,14 +4460,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC1E931-C3B3-47D3-97FC-FFB9DB2F66C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC1E931-C3B3-47D3-97FC-FFB9DB2F66C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/task06/Scrum.xlsx
+++ b/doc/task06/Scrum.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\DATEIEN\BFH\Software_Engineering_and_Design\Project\ch.bfh.bti7081.s2020.red\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_19ca\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159397C-4C78-4A46-A8DB-7154AADC364D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{F2908574-7E9F-4794-8A03-6F9E18A8418C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F0453C23-848A-43DB-B42B-BBFE0294AE52}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="1" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
-    <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -95,6 +95,18 @@
     <t>rodrj3</t>
   </si>
   <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Time of Record</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Remaining Ressources</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>The patient should be able to trigger different alarm types</t>
   </si>
   <si>
-    <t>Entry Manager</t>
+    <t>Dairy Manager</t>
   </si>
   <si>
     <t>When the patient sends an entry, it should be processed by a server, stored and should update the statistik</t>
@@ -182,9 +194,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Components</t>
   </si>
   <si>
@@ -516,15 +525,6 @@
   </si>
   <si>
     <t>Update changed data on web and store changed data</t>
-  </si>
-  <si>
-    <t>Time of Record</t>
-  </si>
-  <si>
-    <t>Remaining Effort</t>
-  </si>
-  <si>
-    <t>Remaining Ressources</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,17 +997,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1097,58 +1097,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37905654-AFA3-4390-A55C-951738E63CDA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016FE4A-2B73-459C-87CB-EDCAB38B1A70}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5">
         <f>'Sprint Backlog'!I2</f>
@@ -1163,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6">
         <f>'Sprint Backlog'!I7</f>
@@ -1192,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <f>'Sprint Backlog'!I11</f>
@@ -1221,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="6">
         <f>'Sprint Backlog'!I20</f>
@@ -1250,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5">
         <f>'Sprint Backlog'!I34</f>
@@ -1279,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6">
         <f>'Sprint Backlog'!I39</f>
@@ -1308,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="5">
         <f>'Sprint Backlog'!I52</f>
@@ -1337,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6">
         <f>'Sprint Backlog'!I57</f>
@@ -1366,12 +1400,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" s="18">
         <f>SUM(E2:E9)</f>
@@ -1380,69 +1414,69 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D673EB-24A7-477E-9980-3DAAF88CD06C}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="62.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
-    <col min="12" max="12" width="11.44140625" style="15"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="45">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1">
       <c r="A2" s="10">
         <f>'Product Backlog'!A2</f>
         <v>1</v>
@@ -1482,7 +1516,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <f>A2+0.1</f>
         <v>1.1000000000000001</v>
@@ -1492,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="1"/>
@@ -1512,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A5" si="0">A3+0.1</f>
         <v>1.2000000000000002</v>
@@ -1525,13 +1559,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
@@ -1545,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
@@ -1558,13 +1592,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1"/>
@@ -1578,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="1"/>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -1593,7 +1627,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10">
         <f>'Product Backlog'!A3</f>
         <v>2</v>
@@ -1633,7 +1667,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <f>A7+0.1</f>
         <v>2.1</v>
@@ -1643,21 +1677,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1666,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <f>A8+0.1</f>
         <v>2.2000000000000002</v>
@@ -1678,13 +1712,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1"/>
@@ -1698,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -1713,7 +1747,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="10">
         <f>'Product Backlog'!A4</f>
         <v>3</v>
@@ -1753,7 +1787,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="14">
         <f>A11+0.1</f>
         <v>3.1</v>
@@ -1763,21 +1797,21 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1786,12 +1820,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="14">
-        <f t="shared" ref="A13:A18" si="4">A12+0.1</f>
+        <f t="shared" ref="A13:A16" si="4">A12+0.1</f>
         <v>3.2</v>
       </c>
       <c r="B13" s="1">
@@ -1799,21 +1833,21 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1822,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="14">
         <f t="shared" si="4"/>
         <v>3.3000000000000003</v>
@@ -1835,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1858,29 +1892,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="14">
         <f t="shared" si="4"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
@@ -1894,29 +1927,25 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="14">
         <f t="shared" si="4"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
@@ -1930,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="14">
         <f>A16+0.1</f>
         <v>3.6000000000000005</v>
@@ -1943,16 +1972,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -1966,29 +1995,25 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="14">
-        <f t="shared" si="4"/>
+        <f>A17+0.1</f>
         <v>3.7000000000000006</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
@@ -2002,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -2017,7 +2042,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="10">
         <f>'Product Backlog'!A5</f>
         <v>4</v>
@@ -2057,7 +2082,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <f xml:space="preserve"> A20+0.1</f>
         <v>4.0999999999999996</v>
@@ -2067,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
@@ -2087,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A29" si="7" xml:space="preserve"> A21+0.1</f>
         <v>4.1999999999999993</v>
@@ -2100,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
@@ -2120,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <f t="shared" si="7"/>
         <v>4.2999999999999989</v>
@@ -2133,13 +2158,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
@@ -2153,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <f t="shared" si="7"/>
         <v>4.3999999999999986</v>
@@ -2166,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -2186,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <f t="shared" si="7"/>
         <v>4.4999999999999982</v>
@@ -2199,13 +2224,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
@@ -2219,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <f t="shared" si="7"/>
         <v>4.5999999999999979</v>
@@ -2232,13 +2257,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
@@ -2252,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <f t="shared" si="7"/>
         <v>4.6999999999999975</v>
@@ -2265,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
@@ -2285,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <f t="shared" si="7"/>
         <v>4.7999999999999972</v>
@@ -2298,13 +2323,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
@@ -2318,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <f t="shared" si="7"/>
         <v>4.8999999999999968</v>
@@ -2331,13 +2356,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
@@ -2351,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -2363,13 +2388,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
@@ -2383,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -2395,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
@@ -2415,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="1">
         <v>4.12</v>
       </c>
@@ -2427,13 +2452,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
@@ -2447,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="B33" s="1"/>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -2462,7 +2487,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="10">
         <f>'Product Backlog'!A6</f>
         <v>5</v>
@@ -2502,7 +2527,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <f>A34+0.1</f>
         <v>5.0999999999999996</v>
@@ -2512,13 +2537,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
@@ -2532,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <f>A35+0.1</f>
         <v>5.1999999999999993</v>
@@ -2545,13 +2570,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
@@ -2565,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <f>A36+0.1</f>
         <v>5.2999999999999989</v>
@@ -2578,13 +2603,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
@@ -2598,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="B38" s="1"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -2613,7 +2638,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="10">
         <f>'Product Backlog'!A7</f>
         <v>6</v>
@@ -2641,11 +2666,11 @@
         <v>24</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" ref="J39:K39" si="9">SUM(J40:J51)</f>
+        <f>SUM(J40:J51)</f>
         <v>0</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="9"/>
+        <f>SUM(K40:K51)</f>
         <v>0</v>
       </c>
       <c r="L39" s="10" t="str">
@@ -2653,26 +2678,26 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <f>A39+0.1</f>
         <v>6.1</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ref="B40:B49" si="10">$B$39</f>
+        <f t="shared" ref="B40:B49" si="9">$B$39</f>
         <v>1</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
@@ -2686,29 +2711,29 @@
         <v>0</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30">
       <c r="A41" s="1">
-        <f t="shared" ref="A41:A48" si="11">A40+0.1</f>
+        <f t="shared" ref="A41:A48" si="10">A40+0.1</f>
         <v>6.1999999999999993</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
@@ -2722,29 +2747,29 @@
         <v>0</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30">
       <c r="A42" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.2999999999999989</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
@@ -2758,26 +2783,26 @@
         <v>0</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30">
       <c r="A43" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.3999999999999986</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
@@ -2794,26 +2819,26 @@
         <v>0</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.4999999999999982</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>11</v>
@@ -2830,26 +2855,26 @@
         <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.5999999999999979</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>11</v>
@@ -2866,29 +2891,29 @@
         <v>0</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.6999999999999975</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
@@ -2902,25 +2927,25 @@
         <v>0</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.7999999999999972</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
@@ -2934,69 +2959,61 @@
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.8999999999999968</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30">
+      <c r="A49" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -3005,24 +3022,24 @@
         <v>0</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>18</v>
@@ -3039,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -3054,7 +3071,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="10">
         <f>'Product Backlog'!A8</f>
         <v>7</v>
@@ -3094,7 +3111,7 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <f>A52+0.1</f>
         <v>7.1</v>
@@ -3104,13 +3121,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="1"/>
@@ -3124,12 +3141,12 @@
         <v>0</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <f t="shared" ref="A54:A55" si="12">A53+0.1</f>
+        <f t="shared" ref="A54:A55" si="11">A53+0.1</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="B54" s="1">
@@ -3137,13 +3154,13 @@
         <v>3</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="1"/>
@@ -3157,12 +3174,12 @@
         <v>0</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.2999999999999989</v>
       </c>
       <c r="B55" s="1">
@@ -3170,13 +3187,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="1"/>
@@ -3190,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" s="4"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -3206,7 +3223,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="10">
         <f>'Product Backlog'!A9</f>
         <v>8</v>
@@ -3216,7 +3233,7 @@
       </c>
       <c r="C57" s="10" t="str">
         <f>'Product Backlog'!B9</f>
-        <v>Entry Manager</v>
+        <v>Dairy Manager</v>
       </c>
       <c r="D57" s="13" t="str">
         <f>'Product Backlog'!C9</f>
@@ -3243,23 +3260,23 @@
         <v>waiting</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <f xml:space="preserve"> A57 + 0.1</f>
         <v>8.1</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ref="B58:B65" si="13">$B$57</f>
+        <f t="shared" ref="B58:B65" si="12">$B$57</f>
         <v>2</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="1"/>
@@ -3273,26 +3290,26 @@
         <v>0</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <f t="shared" ref="A59:A65" si="14" xml:space="preserve"> A58 + 0.1</f>
+        <f t="shared" ref="A59:A65" si="13" xml:space="preserve"> A58 + 0.1</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="1"/>
@@ -3306,26 +3323,26 @@
         <v>0</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="1"/>
@@ -3339,26 +3356,26 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="1"/>
@@ -3372,26 +3389,26 @@
         <v>0</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.4999999999999982</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="1"/>
@@ -3405,26 +3422,26 @@
         <v>0</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.5999999999999979</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="1"/>
@@ -3438,26 +3455,26 @@
         <v>0</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.6999999999999975</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3471,26 +3488,26 @@
         <v>0</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -3504,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="B66" s="1"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
@@ -3519,7 +3536,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="B67" s="1"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -3531,7 +3548,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="B68" s="1"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
@@ -3543,7 +3560,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="B69" s="1"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -3555,7 +3572,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="B70" s="1"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -3567,7 +3584,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="B71" s="1"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -3579,7 +3596,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="B72" s="1"/>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -3591,7 +3608,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="B73" s="1"/>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -3603,7 +3620,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="B74" s="1"/>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -3615,7 +3632,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="B75" s="1"/>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -3627,7 +3644,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="B76" s="1"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -3639,7 +3656,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="B77" s="1"/>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -3651,7 +3668,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="B78" s="1"/>
       <c r="C78" s="9"/>
       <c r="D78" s="4"/>
@@ -3663,7 +3680,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="B79" s="1"/>
       <c r="C79" s="9"/>
       <c r="D79" s="4"/>
@@ -3675,7 +3692,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="B80" s="1"/>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -3687,7 +3704,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12">
       <c r="B81" s="1"/>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
@@ -3699,7 +3716,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12">
       <c r="B82" s="1"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -3711,7 +3728,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12">
       <c r="B83" s="1"/>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -3723,7 +3740,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12">
       <c r="B84" s="1"/>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -3735,7 +3752,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12">
       <c r="B85" s="1"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -3747,7 +3764,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12">
       <c r="B86" s="1"/>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -3759,7 +3776,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12">
       <c r="B87" s="1"/>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -3771,7 +3788,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12">
       <c r="B88" s="1"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -3783,7 +3800,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12">
       <c r="B89" s="1"/>
       <c r="C89" s="9"/>
       <c r="D89" s="4"/>
@@ -3795,7 +3812,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12">
       <c r="B90" s="1"/>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
@@ -3807,7 +3824,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12">
       <c r="B91" s="1"/>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
@@ -3819,7 +3836,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12">
       <c r="B92" s="1"/>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -3831,7 +3848,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12">
       <c r="B93" s="1"/>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -3843,7 +3860,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="B94" s="1"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -3855,7 +3872,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12">
       <c r="B95" s="1"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -3867,7 +3884,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12">
       <c r="B96" s="1"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
@@ -3879,7 +3896,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12">
       <c r="B97" s="1"/>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -3891,7 +3908,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12">
       <c r="B98" s="1"/>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -3903,7 +3920,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12">
       <c r="B99" s="1"/>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -3915,7 +3932,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12">
       <c r="B100" s="1"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
@@ -3927,7 +3944,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12">
       <c r="B101" s="1"/>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -3939,7 +3956,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12">
       <c r="B102" s="1"/>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
@@ -3951,7 +3968,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12">
       <c r="B103" s="1"/>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -3963,7 +3980,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12">
       <c r="B104" s="1"/>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -3975,7 +3992,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12">
       <c r="B105" s="1"/>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -3987,7 +4004,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12">
       <c r="B106" s="1"/>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -3999,7 +4016,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12">
       <c r="B107" s="1"/>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
@@ -4011,7 +4028,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12">
       <c r="B108" s="1"/>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -4023,7 +4040,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12">
       <c r="B109" s="1"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
@@ -4035,7 +4052,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12">
       <c r="B110" s="1"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
@@ -4047,7 +4064,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
@@ -4059,7 +4076,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -4071,7 +4088,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -4083,7 +4100,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -4095,7 +4112,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -4107,7 +4124,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -4119,7 +4136,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -4131,7 +4148,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -4143,7 +4160,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
@@ -4155,7 +4172,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="4"/>
@@ -4167,7 +4184,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -4179,7 +4196,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
@@ -4191,7 +4208,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -4203,7 +4220,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
@@ -4215,7 +4232,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -4227,7 +4244,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
@@ -4245,41 +4262,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37905654-AFA3-4390-A55C-951738E63CDA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006893662426E20041B5DC715A07C05AC8" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b123856be176c707d40d0b1637a1d9d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d1dfd9-2c46-4740-86be-d7afc8a22601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e95ad6ca7cbfde5073c24a6d92598f1c" ns2:_="">
     <xsd:import namespace="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
@@ -4451,15 +4443,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4467,36 +4450,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC1E931-C3B3-47D3-97FC-FFB9DB2F66C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC1E931-C3B3-47D3-97FC-FFB9DB2F66C2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}"/>
 </file>